--- a/listas_unificadas.xlsx
+++ b/listas_unificadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Edad_x</t>
   </si>
   <si>
-    <t>Ciudad_x</t>
+    <t>Ciudad</t>
   </si>
   <si>
     <t>Edad_y</t>
-  </si>
-  <si>
-    <t>Ciudad_y</t>
   </si>
   <si>
     <t>Cecilia</t>
@@ -425,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,11 +444,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -459,22 +453,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,22 +473,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -505,22 +493,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -528,22 +513,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -551,22 +533,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -574,22 +553,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -597,22 +573,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -620,19 +593,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/listas_unificadas.xlsx
+++ b/listas_unificadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -22,13 +22,16 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Edad_x</t>
+    <t>Edad</t>
   </si>
   <si>
     <t>Ciudad</t>
   </si>
   <si>
-    <t>Edad_y</t>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Empleado</t>
   </si>
   <si>
     <t>Cecilia</t>
@@ -65,6 +68,27 @@
   </si>
   <si>
     <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>BBVA</t>
+  </si>
+  <si>
+    <t>Banco Nación</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -422,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +468,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,19 +480,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -473,19 +503,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,19 +526,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -513,19 +549,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -533,19 +572,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -553,19 +595,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -573,19 +618,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -593,16 +641,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/listas_unificadas.xlsx
+++ b/listas_unificadas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Edad</t>
+    <t>Edad_x</t>
   </si>
   <si>
     <t>Ciudad</t>
   </si>
   <si>
-    <t>Banco</t>
-  </si>
-  <si>
-    <t>Empleado</t>
+    <t>Edad_y</t>
   </si>
   <si>
     <t>Cecilia</t>
@@ -68,27 +65,6 @@
   </si>
   <si>
     <t>Santa Fe</t>
-  </si>
-  <si>
-    <t>BBVA</t>
-  </si>
-  <si>
-    <t>Banco Nación</t>
-  </si>
-  <si>
-    <t>Santander</t>
-  </si>
-  <si>
-    <t>Galicia</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -446,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,11 +444,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -480,22 +453,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -503,22 +473,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -526,22 +493,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -549,22 +513,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -572,22 +533,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -595,22 +553,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -618,22 +573,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -641,19 +593,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
